--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>14512</v>
+        <v>14485.46121151955</v>
       </c>
       <c r="C2">
-        <v>33694</v>
+        <v>33734.78440102194</v>
       </c>
       <c r="D2">
-        <v>69498</v>
+        <v>69568.33959421814</v>
       </c>
       <c r="E2">
-        <v>106800</v>
+        <v>106803.4685720019</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>145222</v>
+        <v>145003.3954756857</v>
       </c>
       <c r="C3">
-        <v>297920</v>
+        <v>298145.8313006964</v>
       </c>
       <c r="D3">
-        <v>386768</v>
+        <v>386440.3209392101</v>
       </c>
       <c r="E3">
-        <v>436855</v>
+        <v>437253.6901728552</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>16020</v>
+        <v>15942.47343396684</v>
       </c>
       <c r="C4">
-        <v>33371</v>
+        <v>33362.88336293728</v>
       </c>
       <c r="D4">
-        <v>56565</v>
+        <v>56608.03133420134</v>
       </c>
       <c r="E4">
-        <v>74340</v>
+        <v>74459.8499575834</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>60192</v>
+        <v>60096.74729507345</v>
       </c>
       <c r="C6">
-        <v>99125</v>
+        <v>99153.67958249315</v>
       </c>
       <c r="D6">
-        <v>106064</v>
+        <v>106104.9411789463</v>
       </c>
       <c r="E6">
-        <v>94438</v>
+        <v>94580.64645259328</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6780</v>
+        <v>6747.90035708273</v>
       </c>
       <c r="C7">
-        <v>16850</v>
+        <v>16819.5337263134</v>
       </c>
       <c r="D7">
-        <v>21076</v>
+        <v>21084.82219611427</v>
       </c>
       <c r="E7">
-        <v>24804</v>
+        <v>24848.54708038423</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>506530</v>
+        <v>504892.9070988327</v>
       </c>
       <c r="C9">
-        <v>1002170</v>
+        <v>1000724.314930425</v>
       </c>
       <c r="D9">
-        <v>1537434</v>
+        <v>1540441.836425559</v>
       </c>
       <c r="E9">
-        <v>2048310</v>
+        <v>2052747.6651996</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>604977</v>
+        <v>597460.1008527816</v>
       </c>
       <c r="C12">
-        <v>895518</v>
+        <v>891326.4376878701</v>
       </c>
       <c r="D12">
-        <v>881400</v>
+        <v>881601.2396952431</v>
       </c>
       <c r="E12">
-        <v>693940</v>
+        <v>694918.7786644093</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>14485.46121151955</v>
+        <v>14052.97134230868</v>
       </c>
       <c r="C2">
-        <v>33734.78440102194</v>
+        <v>33102.37229944886</v>
       </c>
       <c r="D2">
-        <v>69568.33959421814</v>
+        <v>68743.10073124006</v>
       </c>
       <c r="E2">
-        <v>106803.4685720019</v>
+        <v>105891.1063534189</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>145003.3954756857</v>
+        <v>144215.7293901596</v>
       </c>
       <c r="C3">
-        <v>298145.8313006964</v>
+        <v>296666.0540025069</v>
       </c>
       <c r="D3">
-        <v>386440.3209392101</v>
+        <v>384373.8278992076</v>
       </c>
       <c r="E3">
-        <v>437253.6901728552</v>
+        <v>434779.1362784278</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>15942.47343396684</v>
+        <v>16114.21758240333</v>
       </c>
       <c r="C4">
-        <v>33362.88336293728</v>
+        <v>33507.08831302357</v>
       </c>
       <c r="D4">
-        <v>56608.03133420134</v>
+        <v>56697.23118320743</v>
       </c>
       <c r="E4">
-        <v>74459.8499575834</v>
+        <v>74514.34777728259</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>60096.74729507345</v>
+        <v>59789.47743706995</v>
       </c>
       <c r="C6">
-        <v>99153.67958249315</v>
+        <v>98642.60227902868</v>
       </c>
       <c r="D6">
-        <v>106104.9411789463</v>
+        <v>105613.4204940141</v>
       </c>
       <c r="E6">
-        <v>94580.64645259328</v>
+        <v>94141.70156615564</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6747.90035708273</v>
+        <v>6670.314300962498</v>
       </c>
       <c r="C7">
-        <v>16819.5337263134</v>
+        <v>16646.60103553965</v>
       </c>
       <c r="D7">
-        <v>21084.82219611427</v>
+        <v>20909.97910987132</v>
       </c>
       <c r="E7">
-        <v>24848.54708038423</v>
+        <v>24673.65696754772</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>504892.9070988327</v>
+        <v>489288.1990318959</v>
       </c>
       <c r="C9">
-        <v>1000724.314930425</v>
+        <v>981100.5988026557</v>
       </c>
       <c r="D9">
-        <v>1540441.836425559</v>
+        <v>1520489.714742828</v>
       </c>
       <c r="E9">
-        <v>2052747.6651996</v>
+        <v>2029455.228680691</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>597460.1008527816</v>
+        <v>543984.2287045493</v>
       </c>
       <c r="C12">
-        <v>891326.4376878701</v>
+        <v>834453.8850243825</v>
       </c>
       <c r="D12">
-        <v>881601.2396952431</v>
+        <v>848999.7934646605</v>
       </c>
       <c r="E12">
-        <v>694918.7786644093</v>
+        <v>680032.5570383753</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto_OV.xlsx
@@ -428,7 +428,7 @@
         <v>33507.08831302357</v>
       </c>
       <c r="D4">
-        <v>56697.23118320743</v>
+        <v>56697.23118320745</v>
       </c>
       <c r="E4">
         <v>74514.34777728259</v>
@@ -456,7 +456,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>59789.47743706995</v>
+        <v>59789.47743706996</v>
       </c>
       <c r="C6">
         <v>98642.60227902868</v>
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6670.314300962498</v>
+        <v>6670.314300962499</v>
       </c>
       <c r="C7">
         <v>16646.60103553965</v>
@@ -482,7 +482,7 @@
         <v>20909.97910987132</v>
       </c>
       <c r="E7">
-        <v>24673.65696754772</v>
+        <v>24673.65696754771</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>489288.1990318959</v>
+        <v>489288.1990318958</v>
       </c>
       <c r="C9">
         <v>981100.5988026557</v>
@@ -558,10 +558,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>543984.2287045493</v>
+        <v>543984.2287045494</v>
       </c>
       <c r="C12">
-        <v>834453.8850243825</v>
+        <v>834453.8850243824</v>
       </c>
       <c r="D12">
         <v>848999.7934646605</v>
